--- a/data/case1/5/Plm1_3.xlsx
+++ b/data/case1/5/Plm1_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.38498153113263811</v>
+        <v>-0.38094952709161589</v>
       </c>
       <c r="B1" s="0">
-        <v>0.38383860212064747</v>
+        <v>0.37984142217757721</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27359408942803753</v>
+        <v>-0.27435413431515698</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2704139205763294</v>
+        <v>0.27124761117078044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.12167453778880599</v>
+        <v>-0.16829455490639944</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12118302422810245</v>
+        <v>0.16736047688051769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10918302432970961</v>
+        <v>-0.15536047698250144</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10876854800539348</v>
+        <v>0.15452405893862498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10276854840092131</v>
+        <v>-0.14852405930034518</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10196409163618991</v>
+        <v>0.14685179533850246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10942636784977156</v>
+        <v>-0.1094531974645121</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10924346365349979</v>
+        <v>0.10926772975338395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.089243464129546979</v>
+        <v>-0.089267730200988993</v>
       </c>
       <c r="B7" s="0">
-        <v>0.088782184540226794</v>
+        <v>0.088799924077182624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068782185021089681</v>
+        <v>-0.06879992452986361</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068383239889272751</v>
+        <v>0.068395307561572416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062383240303726772</v>
+        <v>-0.062395307947272549</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062043514484946272</v>
+        <v>0.062050723510822969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056043514904388303</v>
+        <v>-0.056050723902167476</v>
       </c>
       <c r="B10" s="0">
-        <v>0.05599473734788063</v>
+        <v>0.056001570621781127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051494737760119591</v>
+        <v>-0.051501571006102864</v>
       </c>
       <c r="B11" s="0">
-        <v>0.05141245775333303</v>
+        <v>0.051418354659137577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045412458174377779</v>
+        <v>-0.045418355052796233</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045157970631749311</v>
+        <v>0.045160202343113909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915797105819685</v>
+        <v>-0.039160202742775319</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039088677452841836</v>
+        <v>0.039089905466278552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027088677911875969</v>
+        <v>-0.027089905899178035</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027055160336638906</v>
+        <v>0.027055919735624379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021055160765810932</v>
+        <v>-0.021055920138508988</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02102877645501966</v>
+        <v>0.02102916425946777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028776885255946</v>
+        <v>-0.015029164663616479</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004654794900762</v>
+        <v>0.015004687577876208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090046552266160873</v>
+        <v>-0.0090046879837490934</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995525520404</v>
+        <v>0.008999999578027662</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10024451309120508</v>
+        <v>-0.095487288224859412</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1001137213323382</v>
+        <v>0.095363788258133297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.091113721726972852</v>
+        <v>-0.086363788616273585</v>
       </c>
       <c r="B19" s="0">
-        <v>0.090091226234989108</v>
+        <v>0.085401433816318928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.081091226642130643</v>
+        <v>-0.076401434185432215</v>
       </c>
       <c r="B20" s="0">
-        <v>0.080864231229888617</v>
+        <v>0.076188991606175094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004435599096805</v>
+        <v>-0.0090044246681810769</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995898533136</v>
+        <v>0.0089999996280858419</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09395334898916019</v>
+        <v>-0.093953056632537724</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093638376121097266</v>
+        <v>0.093638198281123408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084638376529445836</v>
+        <v>-0.084638198652578822</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127620106019485</v>
+        <v>0.084127593368980236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127620691212009</v>
+        <v>-0.042127593918869444</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999411834743</v>
+        <v>0.041999999447164704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.013462275811463087</v>
+        <v>-0.031398598246553888</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.013463089203074929</v>
+        <v>0.031367741876493938</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.051637490508959161</v>
+        <v>-0.009725443730758343</v>
       </c>
       <c r="B26" s="0">
-        <v>0.051527029906214494</v>
+        <v>0.009708448786657442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.045527030308960992</v>
+        <v>-0.0037084491598928793</v>
       </c>
       <c r="B27" s="0">
-        <v>0.045167653519554207</v>
+        <v>0.003652433664995236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.039167653926397428</v>
+        <v>0.002347565961437148</v>
       </c>
       <c r="B28" s="0">
-        <v>0.038934014002765416</v>
+        <v>-0.0023836468866056393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.026934014443185106</v>
+        <v>0.014383646481828549</v>
       </c>
       <c r="B29" s="0">
-        <v>0.026838524425171428</v>
+        <v>-0.01440163662062055</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0068385249078199983</v>
+        <v>0.034401636174621331</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0068216157015599244</v>
+        <v>-0.034591973157241274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0081783838412015086</v>
+        <v>0.049591972740335777</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.0081886452158386192</v>
+        <v>-0.049691030944529757</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060008155229134275</v>
+        <v>-0.0060008110496596601</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999589375804</v>
+        <v>0.0059999996313200299</v>
       </c>
     </row>
   </sheetData>
